--- a/leidiprado/Copie_some_info_Results.xlsx
+++ b/leidiprado/Copie_some_info_Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Results_Conditional_Scenarios -" sheetId="1" state="visible" r:id="rId2"/>
@@ -858,11 +858,11 @@
   </sheetPr>
   <dimension ref="A1:AI43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X9" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH26" activeCellId="0" sqref="AH26"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R9" activeCellId="0" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.34765625" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.85"/>
@@ -877,17 +877,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="7.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="10.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="11.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="11.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="1" width="18.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="7.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="10.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="11.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="13.92"/>
@@ -3843,11 +3843,11 @@
   </sheetPr>
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G11" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U30" activeCellId="0" sqref="U30"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S31" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V53" activeCellId="0" sqref="V53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.34765625" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="69.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.3"/>
@@ -4104,10 +4104,22 @@
       <c r="Q4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
+      <c r="R4" s="17" t="n">
+        <f aca="false">H2+G53*B23+H52*B27+I53*B25+J51*B30+B11+B16+B20</f>
+        <v>19.343335</v>
+      </c>
+      <c r="S4" s="17" t="n">
+        <f aca="false">R4*10</f>
+        <v>193.43335</v>
+      </c>
+      <c r="T4" s="17" t="n">
+        <f aca="false">R4*25</f>
+        <v>483.583375</v>
+      </c>
+      <c r="U4" s="17" t="n">
+        <f aca="false">R4*50</f>
+        <v>967.166749999999</v>
+      </c>
       <c r="V4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4154,10 +4166,22 @@
       <c r="Q5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
+      <c r="R5" s="17" t="n">
+        <f aca="false">H2+G51*B23+H50*B27+I50*B25+J52*B30+B7</f>
+        <v>152.2315912</v>
+      </c>
+      <c r="S5" s="17" t="n">
+        <f aca="false">R5*10</f>
+        <v>1522.315912</v>
+      </c>
+      <c r="T5" s="17" t="n">
+        <f aca="false">R5*25</f>
+        <v>3805.78978</v>
+      </c>
+      <c r="U5" s="17" t="n">
+        <f aca="false">R5*50</f>
+        <v>7611.57956</v>
+      </c>
       <c r="V5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4388,19 +4412,19 @@
       </c>
       <c r="R11" s="17" t="n">
         <f aca="false">H11+G50*B24+H50*B29+I50*B26+J50*B31</f>
-        <v>-5.1169233</v>
+        <v>-5.11692330000002</v>
       </c>
       <c r="S11" s="17" t="n">
         <f aca="false">R11*5</f>
-        <v>-25.5846165</v>
+        <v>-25.5846165000001</v>
       </c>
       <c r="T11" s="17" t="n">
         <f aca="false">R11*10</f>
-        <v>-51.169233</v>
+        <v>-51.1692330000002</v>
       </c>
       <c r="U11" s="17" t="n">
         <f aca="false">R11*15</f>
-        <v>-76.7538495</v>
+        <v>-76.7538495000003</v>
       </c>
       <c r="V11" s="19"/>
     </row>
@@ -4510,10 +4534,22 @@
       <c r="Q13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
+      <c r="R13" s="17" t="n">
+        <f aca="false">H11+G53*B24+H52*B29+I53*B26+J51*B31+B14+B17+B22</f>
+        <v>430.27548</v>
+      </c>
+      <c r="S13" s="17" t="n">
+        <f aca="false">R13*5</f>
+        <v>2151.3774</v>
+      </c>
+      <c r="T13" s="17" t="n">
+        <f aca="false">R13*10</f>
+        <v>4302.7548</v>
+      </c>
+      <c r="U13" s="17" t="n">
+        <f aca="false">R13*15</f>
+        <v>6454.1322</v>
+      </c>
       <c r="V13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4560,10 +4596,22 @@
       <c r="Q14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
+      <c r="R14" s="17" t="n">
+        <f aca="false">H11+G51*B24+H50*B29+I50*B26+J52*B31+B8</f>
+        <v>-112.5390098</v>
+      </c>
+      <c r="S14" s="17" t="n">
+        <f aca="false">R14*5</f>
+        <v>-562.695049</v>
+      </c>
+      <c r="T14" s="17" t="n">
+        <f aca="false">R14*10</f>
+        <v>-1125.390098</v>
+      </c>
+      <c r="U14" s="17" t="n">
+        <f aca="false">R14*15</f>
+        <v>-1688.085147</v>
+      </c>
       <c r="V14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4874,7 +4922,10 @@
         <v>37</v>
       </c>
       <c r="Q22" s="13"/>
-      <c r="R22" s="17"/>
+      <c r="R22" s="17" t="n">
+        <f aca="false">H20+G53*B34+H52*B36+I53*B32+B40</f>
+        <v>-2043.577923</v>
+      </c>
       <c r="S22" s="19"/>
       <c r="T22" s="16" t="n">
         <v>1</v>
@@ -4923,7 +4974,10 @@
         <v>28</v>
       </c>
       <c r="Q23" s="13"/>
-      <c r="R23" s="17"/>
+      <c r="R23" s="17" t="n">
+        <f aca="false">H20+G51*B34+H50*B36+I50*B32</f>
+        <v>-3592.0639502</v>
+      </c>
       <c r="S23" s="19"/>
       <c r="T23" s="16" t="n">
         <v>2</v>
@@ -4970,7 +5024,10 @@
       <c r="U24" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="V24" s="19"/>
+      <c r="V24" s="19" t="n">
+        <f aca="false">U4+S13+R31</f>
+        <v>4237.440976</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="33" t="s">
@@ -5006,7 +5063,10 @@
       <c r="U25" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="V25" s="19"/>
+      <c r="V25" s="19" t="n">
+        <f aca="false">U5+S14+R32</f>
+        <v>8880.2214666</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="33" t="s">
@@ -5266,7 +5326,10 @@
         <v>37</v>
       </c>
       <c r="Q31" s="13"/>
-      <c r="R31" s="17"/>
+      <c r="R31" s="17" t="n">
+        <f aca="false">H29+G53*B35+H52*B37+I53*B33+B41</f>
+        <v>1118.896826</v>
+      </c>
       <c r="S31" s="19"/>
       <c r="T31" s="16" t="n">
         <v>3</v>
@@ -5274,7 +5337,10 @@
       <c r="U31" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="V31" s="19"/>
+      <c r="V31" s="19" t="n">
+        <f aca="false">S4+U13</f>
+        <v>6647.56555</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="33" t="s">
@@ -5312,7 +5378,10 @@
         <v>28</v>
       </c>
       <c r="Q32" s="13"/>
-      <c r="R32" s="17"/>
+      <c r="R32" s="17" t="n">
+        <f aca="false">H29+G51*B35+H50*B37+I50*B33</f>
+        <v>1831.3369556</v>
+      </c>
       <c r="S32" s="19"/>
       <c r="T32" s="16" t="n">
         <v>4</v>
@@ -5320,7 +5389,10 @@
       <c r="U32" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="V32" s="19"/>
+      <c r="V32" s="19" t="n">
+        <f aca="false">S5+U14</f>
+        <v>-165.769235</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="33" t="s">
@@ -5536,7 +5608,10 @@
       <c r="U38" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="V38" s="34"/>
+      <c r="V38" s="37" t="n">
+        <f aca="false">T4+S13+R31</f>
+        <v>3753.857601</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="33" t="s">
@@ -5572,7 +5647,10 @@
       <c r="U39" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="V39" s="34"/>
+      <c r="V39" s="37" t="n">
+        <f aca="false">T5+S14+R32</f>
+        <v>5074.4316866</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="33" t="s">
@@ -5874,7 +5952,10 @@
       <c r="U47" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="V47" s="34"/>
+      <c r="V47" s="37" t="n">
+        <f aca="false">S4+T13+R31</f>
+        <v>5615.084976</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="35"/>
@@ -5902,7 +5983,10 @@
       <c r="U48" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="V48" s="34"/>
+      <c r="V48" s="37" t="n">
+        <f aca="false">S5+T14+R32</f>
+        <v>2228.2627696</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="35"/>
@@ -6116,7 +6200,10 @@
       <c r="U53" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="V53" s="34"/>
+      <c r="V53" s="37" t="n">
+        <f aca="false">T4+U13</f>
+        <v>6937.715575</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="35"/>
@@ -6144,7 +6231,10 @@
       <c r="U54" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="V54" s="34"/>
+      <c r="V54" s="37" t="n">
+        <f aca="false">T5+U14</f>
+        <v>2117.704633</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="35"/>
@@ -6342,7 +6432,10 @@
       <c r="U60" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="V60" s="19"/>
+      <c r="V60" s="19" t="n">
+        <f aca="false">U4+S13+R22</f>
+        <v>1074.966227</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="35"/>
@@ -6370,7 +6463,10 @@
       <c r="U61" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="V61" s="19"/>
+      <c r="V61" s="19" t="n">
+        <f aca="false">U5+S14+R23</f>
+        <v>3456.8205608</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="35"/>
